--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1814053.546353467</v>
+        <v>1811494.591554516</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443395.52155652</v>
+        <v>12444970.70772257</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>461523.3857480707</v>
+        <v>428022.1753582572</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10158285.80343513</v>
+        <v>10169950.41088696</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>263.7138800015061</v>
+      </c>
+      <c r="W2" t="n">
         <v>208.2085323732918</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>263.7138800015061</v>
-      </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>112.7031057429076</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>48.44626081894172</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>41.65170393035857</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>196.9157094162882</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278.530796322269</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>32.88946412394801</v>
       </c>
       <c r="G5" t="n">
-        <v>12.73612216399896</v>
+        <v>12.81018594870497</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.1847050820837</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1403236797456</v>
+        <v>251.1462487825221</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>270.6457911193422</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>292.0476860419636</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.0476860419636</v>
+        <v>270.6457911193422</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>96.4693166620133</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.970256883591</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.97264100964345</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>17.35562383539695</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.9115293481485</v>
       </c>
       <c r="T6" t="n">
-        <v>194.6295260765301</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>11.95818726457232</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.5316380120451</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.1683691822117</v>
       </c>
       <c r="U7" t="n">
-        <v>210.7670980738085</v>
+        <v>270.6457911193422</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>270.6457911193422</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>64.13889507590365</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>253.7298908377292</v>
+        <v>192.0872650464905</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>16.71410042222013</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542853</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>332.4423155261899</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>200.6173698503548</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.0104091278794</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1585,7 +1585,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>134.4151994861204</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001842</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1698,10 +1698,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>54.79181287784825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>233.2715658672525</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081966</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.825382616189214</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>38.03682829123401</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>233.2715658672525</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.03682829123491</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>125.2851635392052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>42.71572132711237</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411501</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>10.63412424768206</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,7 +3433,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503923</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>20.9284728855276</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238289</v>
+        <v>252.1376433238325</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6315337216687</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759409</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.2078024559147</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365923</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127781</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.4777567984221</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>157.4777567984221</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4777567984221</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4331,10 +4331,10 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030606</v>
@@ -4361,10 +4361,10 @@
         <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>690.233069932778</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>690.233069932778</v>
+        <v>634.167062227511</v>
       </c>
       <c r="W2" t="n">
         <v>423.8554133656</v>
@@ -4373,7 +4373,7 @@
         <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>157.4777567984221</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>541.1948062212339</v>
+        <v>354.787594686703</v>
       </c>
       <c r="C3" t="n">
-        <v>541.1948062212339</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>427.3532852688019</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1158302633464</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4413,13 +4413,13 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>247.7358133554696</v>
       </c>
       <c r="M3" t="n">
-        <v>503.6022960313624</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N3" t="n">
-        <v>713.6562631339674</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
         <v>909.4672107560896</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>987.5840192239847</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413019</v>
+        <v>790.7749408554223</v>
       </c>
       <c r="U3" t="n">
-        <v>709.4101432413019</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="V3" t="n">
-        <v>709.4101432413019</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="W3" t="n">
-        <v>709.4101432413019</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="X3" t="n">
-        <v>709.4101432413019</v>
+        <v>354.787594686703</v>
       </c>
       <c r="Y3" t="n">
-        <v>709.4101432413019</v>
+        <v>354.787594686703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.0102039825136</v>
+        <v>232.1057215405108</v>
       </c>
       <c r="C4" t="n">
-        <v>169.0102039825136</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="D4" t="n">
-        <v>169.0102039825136</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="G4" t="n">
         <v>21.09711040012049</v>
@@ -4489,19 +4489,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>622.5994491745502</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>423.6946921884005</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V4" t="n">
-        <v>169.0102039825136</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="W4" t="n">
-        <v>169.0102039825136</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X4" t="n">
-        <v>169.0102039825136</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="Y4" t="n">
-        <v>169.0102039825136</v>
+        <v>232.1057215405108</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.17408549518576</v>
+        <v>67.81292598919686</v>
       </c>
       <c r="C5" t="n">
-        <v>43.17408549518576</v>
+        <v>67.81292598919686</v>
       </c>
       <c r="D5" t="n">
-        <v>43.17408549518576</v>
+        <v>67.81292598919686</v>
       </c>
       <c r="E5" t="n">
-        <v>43.17408549518576</v>
+        <v>67.81292598919686</v>
       </c>
       <c r="F5" t="n">
-        <v>36.2285847459823</v>
+        <v>34.59124505591603</v>
       </c>
       <c r="G5" t="n">
-        <v>23.36381488335709</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="H5" t="n">
-        <v>23.36381488335709</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="I5" t="n">
-        <v>23.36381488335709</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="J5" t="n">
-        <v>59.78825636384005</v>
+        <v>51.85289433431046</v>
       </c>
       <c r="K5" t="n">
-        <v>165.1175703266667</v>
+        <v>147.8552290548779</v>
       </c>
       <c r="L5" t="n">
-        <v>332.6896600105447</v>
+        <v>303.8563762408123</v>
       </c>
       <c r="M5" t="n">
-        <v>550.8153349129689</v>
+        <v>509.1071481323395</v>
       </c>
       <c r="N5" t="n">
-        <v>777.0843196575195</v>
+        <v>722.2929004749803</v>
       </c>
       <c r="O5" t="n">
-        <v>977.4084444713441</v>
+        <v>910.2628999284741</v>
       </c>
       <c r="P5" t="n">
-        <v>1113.879449478561</v>
+        <v>1036.18994476344</v>
       </c>
       <c r="Q5" t="n">
-        <v>1168.190744167854</v>
+        <v>1082.583164477369</v>
       </c>
       <c r="R5" t="n">
-        <v>1168.190744167854</v>
+        <v>1082.583164477369</v>
       </c>
       <c r="S5" t="n">
-        <v>1168.190744167854</v>
+        <v>1082.583164477369</v>
       </c>
       <c r="T5" t="n">
-        <v>1168.190744167854</v>
+        <v>868.2551795459713</v>
       </c>
       <c r="U5" t="n">
-        <v>914.5136495418486</v>
+        <v>614.5720999676661</v>
       </c>
       <c r="V5" t="n">
-        <v>914.5136495418486</v>
+        <v>341.1925129784315</v>
       </c>
       <c r="W5" t="n">
-        <v>914.5136495418486</v>
+        <v>341.1925129784315</v>
       </c>
       <c r="X5" t="n">
-        <v>619.5159868731985</v>
+        <v>341.1925129784315</v>
       </c>
       <c r="Y5" t="n">
-        <v>324.5183242045484</v>
+        <v>67.81292598919686</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.1488409957381</v>
+        <v>329.8235279562541</v>
       </c>
       <c r="C6" t="n">
-        <v>556.1488409957381</v>
+        <v>329.8235279562541</v>
       </c>
       <c r="D6" t="n">
-        <v>407.2144313344868</v>
+        <v>180.8891182950029</v>
       </c>
       <c r="E6" t="n">
-        <v>407.2144313344868</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="F6" t="n">
-        <v>260.6798733613717</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="G6" t="n">
-        <v>123.3361795395626</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="H6" t="n">
-        <v>23.36381488335709</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="I6" t="n">
-        <v>23.36381488335709</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="J6" t="n">
-        <v>48.71220020202296</v>
+        <v>126.7662775702516</v>
       </c>
       <c r="K6" t="n">
-        <v>131.7830812209574</v>
+        <v>203.5021571589585</v>
       </c>
       <c r="L6" t="n">
-        <v>289.8046734895198</v>
+        <v>353.0055582168462</v>
       </c>
       <c r="M6" t="n">
-        <v>493.5652864422099</v>
+        <v>546.8258438038019</v>
       </c>
       <c r="N6" t="n">
-        <v>717.1274814268784</v>
+        <v>760.1846205357324</v>
       </c>
       <c r="O6" t="n">
-        <v>1006.254690608422</v>
+        <v>933.1464230263268</v>
       </c>
       <c r="P6" t="n">
-        <v>1133.230185134638</v>
+        <v>1052.630451863615</v>
       </c>
       <c r="Q6" t="n">
-        <v>1168.190744167854</v>
+        <v>1082.583164477369</v>
       </c>
       <c r="R6" t="n">
-        <v>1168.190744167854</v>
+        <v>1065.052231310301</v>
       </c>
       <c r="S6" t="n">
-        <v>1168.190744167854</v>
+        <v>916.6567471202522</v>
       </c>
       <c r="T6" t="n">
-        <v>971.5952632824703</v>
+        <v>916.6567471202522</v>
       </c>
       <c r="U6" t="n">
-        <v>971.5952632824703</v>
+        <v>916.6567471202522</v>
       </c>
       <c r="V6" t="n">
-        <v>736.4431550507277</v>
+        <v>681.5046388885096</v>
       </c>
       <c r="W6" t="n">
-        <v>724.3641780158061</v>
+        <v>427.267282160308</v>
       </c>
       <c r="X6" t="n">
-        <v>724.3641780158061</v>
+        <v>427.267282160308</v>
       </c>
       <c r="Y6" t="n">
-        <v>724.3641780158061</v>
+        <v>427.267282160308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.2130913936571</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="C7" t="n">
-        <v>171.2769084657502</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="D7" t="n">
-        <v>171.2769084657502</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="E7" t="n">
-        <v>23.36381488335709</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="F7" t="n">
-        <v>23.36381488335709</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="G7" t="n">
-        <v>23.36381488335709</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="H7" t="n">
-        <v>23.36381488335709</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="I7" t="n">
-        <v>23.36381488335709</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="J7" t="n">
-        <v>23.36381488335709</v>
+        <v>21.65166328954738</v>
       </c>
       <c r="K7" t="n">
-        <v>133.7390019589949</v>
+        <v>128.2056025464429</v>
       </c>
       <c r="L7" t="n">
-        <v>330.5076751718929</v>
+        <v>320.0843941609286</v>
       </c>
       <c r="M7" t="n">
-        <v>548.3617751656318</v>
+        <v>532.7827996211329</v>
       </c>
       <c r="N7" t="n">
-        <v>766.4704080112283</v>
+        <v>745.8583288256584</v>
       </c>
       <c r="O7" t="n">
-        <v>951.9127368348409</v>
+        <v>926.6517718053113</v>
       </c>
       <c r="P7" t="n">
-        <v>1087.070003066813</v>
+        <v>1057.831113077929</v>
       </c>
       <c r="Q7" t="n">
-        <v>1097.210808296917</v>
+        <v>1065.217809258078</v>
       </c>
       <c r="R7" t="n">
-        <v>1097.210808296917</v>
+        <v>1065.217809258078</v>
       </c>
       <c r="S7" t="n">
-        <v>1097.210808296917</v>
+        <v>858.6201951044968</v>
       </c>
       <c r="T7" t="n">
-        <v>1097.210808296917</v>
+        <v>633.1975999709496</v>
       </c>
       <c r="U7" t="n">
-        <v>884.3147496365046</v>
+        <v>359.818012981715</v>
       </c>
       <c r="V7" t="n">
-        <v>629.6302614306178</v>
+        <v>359.818012981715</v>
       </c>
       <c r="W7" t="n">
-        <v>340.2130913936571</v>
+        <v>86.43842599248035</v>
       </c>
       <c r="X7" t="n">
-        <v>340.2130913936571</v>
+        <v>86.43842599248035</v>
       </c>
       <c r="Y7" t="n">
-        <v>340.2130913936571</v>
+        <v>21.65166328954738</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1588.383781964454</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C8" t="n">
-        <v>1588.383781964454</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.118083357703</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
         <v>844.329830759459</v>
@@ -4799,16 +4799,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X8" t="n">
-        <v>1974.983622028575</v>
+        <v>1990.031519739804</v>
       </c>
       <c r="Y8" t="n">
-        <v>1974.983622028575</v>
+        <v>1599.892187763993</v>
       </c>
     </row>
     <row r="9">
@@ -4863,46 +4863,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>1977.748514897737</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>368.9218676324039</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1619.563190355083</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1133.816105018782</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>879.1316168128947</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>589.714446775934</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>589.714446775934</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>368.9218676324039</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
         <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
         <v>2182.462224957689</v>
@@ -5060,31 +5060,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>423.3203657894393</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L12" t="n">
-        <v>914.0526986331905</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M12" t="n">
-        <v>1506.071052885318</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N12" t="n">
-        <v>2128.167016284654</v>
+        <v>1683.796643784373</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>2230.673118784567</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q12" t="n">
         <v>2552.77562977024</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1015.754398433617</v>
+        <v>579.0786403917443</v>
       </c>
       <c r="C13" t="n">
-        <v>846.8182155057106</v>
+        <v>410.1424574638374</v>
       </c>
       <c r="D13" t="n">
-        <v>696.7015760933748</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="E13" t="n">
-        <v>548.7884825109817</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="F13" t="n">
-        <v>401.8985350130713</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G13" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1919.620778439276</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1919.620778439276</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1630.203608402316</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1402.214057504298</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1181.421478360768</v>
+        <v>760.7271052219841</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608054</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304027</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>106.3138404733484</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>106.3138404733484</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>698.3321947254761</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.428158124812</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.7074548523129</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>620.3621893191329</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>470.2455499067971</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>322.332456324404</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>175.4425088264937</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958431</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523129</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614632</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1539.196732007882</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>742.4225746200302</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>328.4394675364367</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608179</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251948</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>841.937882512877</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018652</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.46222495769</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874795</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333933</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021281</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070875</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750193</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.164119594978</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619166</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.85065580060308</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4986375524489</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0073801158076</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.739712959559</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.758067211686</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2276.854030611023</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2552.77562977024</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.77562977024</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>706.6674866466266</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>537.7313037187197</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>387.614664306384</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>239.7015707239909</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>92.81162322608053</v>
+        <v>261.8464821474245</v>
       </c>
       <c r="G19" t="n">
-        <v>92.81162322608053</v>
+        <v>94.65038286230441</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>431.422473086198</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>819.184291169332</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856732</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410167</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410167</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2389.954735732153</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2170.275953446534</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1881.199739761261</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1626.515251555374</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1337.098081518414</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1109.108530620396</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>888.3159514768663</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1897.462430614632</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1539.196732007882</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>742.4225746200302</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>328.4394675364367</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608053</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251936</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128755</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957688</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874794</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333933</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594978</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619166</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.85065580060312</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4986375524491</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>468.2387450141805</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>958.9710778579318</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1550.98943211006</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.98943211006</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2097.865907110254</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2517.44942553633</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2517.44942553633</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>706.6674866466266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>537.7313037187197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>387.614664306384</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>239.7015707239909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156345</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213792</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005499</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2389.954735732153</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2389.954735732153</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2170.275953446534</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1881.199739761261</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1626.515251555374</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1337.098081518414</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1109.108530620396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>888.3159514768663</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6069,22 +6069,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
         <v>470.7064074803617</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>470.7064074803617</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6628,43 +6628,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>481.447947124485</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>186.6449060441816</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
         <v>235.5284942057738</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876679</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C40" t="n">
-        <v>411.963121559761</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474253</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179076</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7573,46 +7573,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336514</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.149234294966</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8061,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.262887399594234</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>26.13373767211351</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.36038626332933</v>
+        <v>59.01279547936826</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>22.69907521443226</v>
+        <v>107.0149645723045</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>107.9103761507608</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>199.7516311504062</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>50.2915261372907</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>50.29152613729153</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.82157105405793</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>84.16945386597439</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613728999</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>112.4550082207796</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>50.29152613729178</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>139.4693302300347</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440905</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108359</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>143.301660067225</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>50.29152613729178</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>29.14392329984864</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>55.74112246243936</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>124.5310997715155</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.3204386478871</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>154.8900140445868</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823553</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>125.5054897610416</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>32.8926045706001</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864788713</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73.62417772602261</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>893606.5435733162</v>
+        <v>893417.5212333896</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>897069.5431855376</v>
+        <v>897069.5431855377</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>870200.0820910312</v>
+        <v>870200.0820910311</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>870200.0820910312</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>870200.0820910311</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>870200.0820910311</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>875001.9222469045</v>
+        <v>875001.9222469043</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>541808.8458556711</v>
+        <v>541808.8458556712</v>
       </c>
       <c r="F2" t="n">
-        <v>541808.8458556713</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>541808.8458556711</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>541808.8458556712</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907537</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="M2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907535</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907537</v>
       </c>
       <c r="O2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>31363.91015980585</v>
+        <v>7673.230953340101</v>
       </c>
       <c r="D3" t="n">
-        <v>361438.621015163</v>
+        <v>383864.7205861359</v>
       </c>
       <c r="E3" t="n">
-        <v>495753.0386361759</v>
+        <v>495753.0386361764</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>11452.26311504116</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744848</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>7292.214993020449</v>
+        <v>1784.052100575301</v>
       </c>
       <c r="L3" t="n">
-        <v>88211.61483298439</v>
+        <v>93628.24182084546</v>
       </c>
       <c r="M3" t="n">
-        <v>129476.544431744</v>
+        <v>129476.5444317441</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3077.017355704674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246753.8673982313</v>
+        <v>246753.8673982314</v>
       </c>
       <c r="C4" t="n">
-        <v>238210.7624926394</v>
+        <v>244663.7830731198</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8110.779805506622</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506623</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8110.779805506622</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8110.779805506622</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731987</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731985</v>
@@ -26470,22 +26470,22 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>65302.21270672465</v>
+        <v>63599.34810691475</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-435686.4565352994</v>
+        <v>-435686.4565352997</v>
       </c>
       <c r="C6" t="n">
-        <v>219326.3092992215</v>
+        <v>238266.8325250168</v>
       </c>
       <c r="D6" t="n">
-        <v>-34491.19905848005</v>
+        <v>-56917.29862945288</v>
       </c>
       <c r="E6" t="n">
-        <v>-62197.10109984984</v>
+        <v>-62243.00609541583</v>
       </c>
       <c r="F6" t="n">
-        <v>433555.9375363261</v>
+        <v>424097.1114996378</v>
       </c>
       <c r="G6" t="n">
-        <v>433555.9375363265</v>
+        <v>435549.374614679</v>
       </c>
       <c r="H6" t="n">
-        <v>433555.9375363259</v>
+        <v>435549.374614679</v>
       </c>
       <c r="I6" t="n">
-        <v>424765.199082666</v>
+        <v>435549.3746146791</v>
       </c>
       <c r="J6" t="n">
-        <v>366584.9581210005</v>
+        <v>366550.2201955648</v>
       </c>
       <c r="K6" t="n">
-        <v>428291.8975470943</v>
+        <v>433765.3225141041</v>
       </c>
       <c r="L6" t="n">
-        <v>347372.4977071305</v>
+        <v>341921.1327938335</v>
       </c>
       <c r="M6" t="n">
-        <v>306107.5681083706</v>
+        <v>306072.8301829346</v>
       </c>
       <c r="N6" t="n">
-        <v>435584.1125401146</v>
+        <v>432472.3572589743</v>
       </c>
       <c r="O6" t="n">
-        <v>435584.1125401147</v>
+        <v>435549.3746146795</v>
       </c>
       <c r="P6" t="n">
-        <v>435584.1125401148</v>
+        <v>435549.374614679</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26738,22 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>638.4455685951039</v>
+        <v>620.0222021494837</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716385</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26790,22 +26790,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>292.0476860419636</v>
+        <v>270.6457911193422</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26960,25 +26960,25 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>24.3905548256256</v>
+        <v>5.967188380005496</v>
       </c>
       <c r="D3" t="n">
-        <v>295.6193235224355</v>
+        <v>314.0426899680554</v>
       </c>
       <c r="E3" t="n">
-        <v>423.9761565988463</v>
+        <v>423.9761565988467</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>28.33380604045743</v>
+        <v>6.931911117836102</v>
       </c>
       <c r="D4" t="n">
-        <v>348.5371460580753</v>
+        <v>369.9390409806965</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259676</v>
+        <v>519.560458225968</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364188</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>28.33380604045743</v>
+        <v>6.93191111783633</v>
       </c>
       <c r="L4" t="n">
-        <v>348.5371460580755</v>
+        <v>369.9390409806965</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259676</v>
+        <v>519.560458225968</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>28.33380604045743</v>
+        <v>6.931911117836102</v>
       </c>
       <c r="L4" t="n">
-        <v>348.5371460580753</v>
+        <v>369.9390409806965</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259676</v>
+        <v>519.560458225968</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>42.93963550499066</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>141.0324363441212</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>34.74195982173113</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>43.9218040015056</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>98.70367459325706</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>125.231963108188</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>89.34292108638931</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.2030453412116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>373.9865816177634</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.1894526509446</v>
+        <v>313.9479583860651</v>
       </c>
       <c r="I5" t="n">
-        <v>111.5264512457316</v>
+        <v>114.38179530561</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.5333222722315</v>
+        <v>152.2210507662197</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8604908645331</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>57.10646735079268</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>77.68341463650546</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>94.19025261409001</v>
+        <v>115.5921475367114</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>70.06386698785404</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0098845019834</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.35536037674964</v>
       </c>
       <c r="I6" t="n">
-        <v>42.11552234696634</v>
+        <v>43.47989429600519</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14.89523538818753</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.1754637170429</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.7892531875067</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8510360099472</v>
+        <v>225.8536430901046</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>239.7367958963473</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8396840708282</v>
+        <v>166.8729065349105</v>
       </c>
       <c r="H7" t="n">
-        <v>151.9911107683246</v>
+        <v>152.2864886762561</v>
       </c>
       <c r="I7" t="n">
-        <v>120.8278857319697</v>
+        <v>121.8269758336436</v>
       </c>
       <c r="J7" t="n">
-        <v>11.96260328119537</v>
+        <v>14.31143149181156</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.5269687169829</v>
+        <v>127.0207715110818</v>
       </c>
       <c r="S7" t="n">
-        <v>203.9526610698114</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0264186538602</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>75.48913335790252</v>
+        <v>15.61225244677331</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>15.87720721724878</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>154.4457582761912</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>116.0012098407399</v>
+        <v>177.6438356319785</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>84.8434719973535</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983995</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30220,10 +30220,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30438,7 +30438,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.566615351136094</v>
+        <v>2.492551566430083</v>
       </c>
       <c r="H5" t="n">
-        <v>26.28534946482253</v>
+        <v>25.5268437297021</v>
       </c>
       <c r="I5" t="n">
-        <v>98.94943832467436</v>
+        <v>96.09409426479588</v>
       </c>
       <c r="J5" t="n">
-        <v>217.8382696584873</v>
+        <v>211.5521985112955</v>
       </c>
       <c r="K5" t="n">
-        <v>326.4830974720782</v>
+        <v>317.061906318281</v>
       </c>
       <c r="L5" t="n">
-        <v>405.0311520244095</v>
+        <v>393.3433313194158</v>
       </c>
       <c r="M5" t="n">
-        <v>450.675197775176</v>
+        <v>437.6702452389167</v>
       </c>
       <c r="N5" t="n">
-        <v>457.9675936415915</v>
+        <v>444.7522073770363</v>
       </c>
       <c r="O5" t="n">
-        <v>432.4458122437319</v>
+        <v>419.9668977383471</v>
       </c>
       <c r="P5" t="n">
-        <v>369.0824957625595</v>
+        <v>358.4320309421043</v>
       </c>
       <c r="Q5" t="n">
-        <v>277.165583499998</v>
+        <v>269.1675279693268</v>
       </c>
       <c r="R5" t="n">
-        <v>161.2251515508028</v>
+        <v>156.5727423347639</v>
       </c>
       <c r="S5" t="n">
-        <v>58.4867473140138</v>
+        <v>56.79901882002559</v>
       </c>
       <c r="T5" t="n">
-        <v>11.23535869959826</v>
+        <v>10.9111444820477</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2053292280908875</v>
+        <v>0.1994041253144067</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.373260279619657</v>
+        <v>1.333632661227192</v>
       </c>
       <c r="H6" t="n">
-        <v>13.26280322685301</v>
+        <v>12.88008385974683</v>
       </c>
       <c r="I6" t="n">
-        <v>47.28111050444873</v>
+        <v>45.91673855540989</v>
       </c>
       <c r="J6" t="n">
-        <v>129.7429810670484</v>
+        <v>125.9990401556796</v>
       </c>
       <c r="K6" t="n">
-        <v>221.7514198015655</v>
+        <v>215.3524284579014</v>
       </c>
       <c r="L6" t="n">
-        <v>298.1721497481191</v>
+        <v>289.567916201983</v>
       </c>
       <c r="M6" t="n">
-        <v>347.9528348843315</v>
+        <v>337.9121001714686</v>
       </c>
       <c r="N6" t="n">
-        <v>357.1621110577459</v>
+        <v>346.8556279741721</v>
       </c>
       <c r="O6" t="n">
-        <v>326.7335543356472</v>
+        <v>317.3051358490853</v>
       </c>
       <c r="P6" t="n">
-        <v>262.2324826933362</v>
+        <v>254.6653456338134</v>
       </c>
       <c r="Q6" t="n">
-        <v>175.2954700791689</v>
+        <v>170.2370393524394</v>
       </c>
       <c r="R6" t="n">
-        <v>85.2625987644556</v>
+        <v>82.80221031724618</v>
       </c>
       <c r="S6" t="n">
-        <v>25.50770738679493</v>
+        <v>24.77164175568926</v>
       </c>
       <c r="T6" t="n">
-        <v>5.535202618291511</v>
+        <v>5.375475507314862</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09034607102760907</v>
+        <v>0.08773899087021</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.151295287630515</v>
+        <v>1.118072823548249</v>
       </c>
       <c r="H7" t="n">
-        <v>10.23606173911495</v>
+        <v>9.940683831183533</v>
       </c>
       <c r="I7" t="n">
-        <v>34.62258919528859</v>
+        <v>33.62349909361463</v>
       </c>
       <c r="J7" t="n">
-        <v>81.3965768354774</v>
+        <v>79.04774862486121</v>
       </c>
       <c r="K7" t="n">
-        <v>133.7595797810725</v>
+        <v>129.8997334995148</v>
       </c>
       <c r="L7" t="n">
-        <v>171.1662103082677</v>
+        <v>166.226935966437</v>
       </c>
       <c r="M7" t="n">
-        <v>180.4707694964815</v>
+        <v>175.262997240386</v>
       </c>
       <c r="N7" t="n">
-        <v>176.1795779698589</v>
+        <v>171.0956348980699</v>
       </c>
       <c r="O7" t="n">
-        <v>162.730355746175</v>
+        <v>158.0345114593472</v>
       </c>
       <c r="P7" t="n">
-        <v>139.2439318785124</v>
+        <v>135.2258258589627</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.40528085786067</v>
+        <v>93.62335252457204</v>
       </c>
       <c r="R7" t="n">
-        <v>51.7664226601866</v>
+        <v>50.27261986608763</v>
       </c>
       <c r="S7" t="n">
-        <v>20.06393696716088</v>
+        <v>19.48496002492721</v>
       </c>
       <c r="T7" t="n">
-        <v>4.91917077442129</v>
+        <v>4.777220246069791</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06279792477984635</v>
+        <v>0.06098579037535912</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,43 +31832,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>571.4938338238242</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>226.4403033743561</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>150.4305144013744</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436714</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377424</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122281</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830429</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364261</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293306</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229606</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>919.857844208695</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148605</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540904</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530531</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735817</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848223</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745723</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>740.13237155043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>421.3049304638558</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862159</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291842</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284924</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273332</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900885</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416873</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282423</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851327</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>366.8718505518655</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,25 +32789,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>209.2370040367373</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,22 +33500,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M36" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34781,16 +34781,16 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>153.4895779655505</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>197.7888359819416</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.79236513180098</v>
+        <v>30.50629398460921</v>
       </c>
       <c r="K5" t="n">
-        <v>106.3932464270976</v>
+        <v>96.97205527330044</v>
       </c>
       <c r="L5" t="n">
-        <v>169.2647370544223</v>
+        <v>157.5769163494285</v>
       </c>
       <c r="M5" t="n">
-        <v>220.3289645479033</v>
+        <v>207.324012011644</v>
       </c>
       <c r="N5" t="n">
-        <v>228.5545300450005</v>
+        <v>215.3391437804453</v>
       </c>
       <c r="O5" t="n">
-        <v>202.3476008220452</v>
+        <v>189.8686863166604</v>
       </c>
       <c r="P5" t="n">
-        <v>137.84950000729</v>
+        <v>127.1990351868348</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.85989362554855</v>
+        <v>46.86183809487736</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.60442961481401</v>
+        <v>106.1763780613174</v>
       </c>
       <c r="K6" t="n">
-        <v>83.90998082720648</v>
+        <v>77.51098948354237</v>
       </c>
       <c r="L6" t="n">
-        <v>159.6177699682449</v>
+        <v>151.0135364221088</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8188009623132</v>
+        <v>195.7780662494503</v>
       </c>
       <c r="N6" t="n">
-        <v>225.8203989744126</v>
+        <v>215.5139158908388</v>
       </c>
       <c r="O6" t="n">
-        <v>292.0476860419636</v>
+        <v>174.7088914046409</v>
       </c>
       <c r="P6" t="n">
-        <v>128.2580752790059</v>
+        <v>120.6909382194832</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.31369599314741</v>
+        <v>30.25526526641789</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.4900879551897</v>
+        <v>107.6302416736319</v>
       </c>
       <c r="L7" t="n">
-        <v>198.7562355685838</v>
+        <v>193.8169612267532</v>
       </c>
       <c r="M7" t="n">
-        <v>220.0546464583221</v>
+        <v>214.8468742022266</v>
       </c>
       <c r="N7" t="n">
-        <v>220.3117503490874</v>
+        <v>215.2278072772985</v>
       </c>
       <c r="O7" t="n">
-        <v>187.3154836602147</v>
+        <v>182.6196393733868</v>
       </c>
       <c r="P7" t="n">
-        <v>136.5224911434059</v>
+        <v>132.5043851238562</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.24323760616629</v>
+        <v>7.461309272877656</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>449.4311602739386</v>
+        <v>505.5216991696271</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>428.8975893793797</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>92.46589596002582</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>12.58907542701538</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970742</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380623</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664388</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020579</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263696</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870083</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.254733440411</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>127.357360784584</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053078</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>149.139375506915</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104633</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946981</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094304</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>278.7086860194114</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066046</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642056</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243779</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209159</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>229.0304115775064</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36437,25 +36437,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>529.7947616033043</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36996,7 +36996,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M36" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191301</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010451</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
